--- a/followers.xlsx
+++ b/followers.xlsx
@@ -471,105 +471,105 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/yavuzhangms7/</t>
+          <t>https://www.instagram.com/f_hgeyim/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/akkusyusuf2010/</t>
+          <t>https://www.instagram.com/yavuzhangms7/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/mehmet_de_tanirlarrr/</t>
+          <t>https://www.instagram.com/eyp_gs12/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/eyp_gs12/</t>
+          <t>https://www.instagram.com/ayman_____jni/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/sezer_kurubacak/</t>
+          <t>https://www.instagram.com/necm2_1/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/mustafa.dr42/</t>
+          <t>https://www.instagram.com/osman_42_42_42_42_/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/mehmet19093/</t>
+          <t>https://www.instagram.com/hsytrgt/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/wq_maminiz/</t>
+          <t>https://www.instagram.com/anwar.lab/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/merenmms/</t>
+          <t>https://www.instagram.com/mehmet_de_tanirlarrr/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/necm2_1/</t>
+          <t>https://www.instagram.com/aali_abdl/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/osman_42_42_42_42_/</t>
+          <t>https://www.instagram.com/sezer_kurubacak/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/qw_aydogdu/</t>
+          <t>https://www.instagram.com/kucukaslanarda/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/hsytrgt/</t>
+          <t>https://www.instagram.com/mustafa.dr42/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/x2suloo/</t>
+          <t>https://www.instagram.com/younness_bouchfar/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/kucukaslanarda/</t>
+          <t>https://www.instagram.com/akkusyusuf2010/</t>
         </is>
       </c>
     </row>
@@ -583,77 +583,77 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/uludagmuammer_/</t>
+          <t>https://www.instagram.com/the_nurlan_o/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/_qwemir/</t>
+          <t>https://www.instagram.com/wq_maminiz/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/k7rsatcan_/</t>
+          <t>https://www.instagram.com/merenmms/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/the_nurlan_o/</t>
+          <t>https://www.instagram.com/adam.pazzi.2/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/theismail.ig/</t>
+          <t>https://www.instagram.com/krmkrm9731/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/aali_abdl/</t>
+          <t>https://www.instagram.com/uludagmuammer_/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/yilmaz_priww56/</t>
+          <t>https://www.instagram.com/lrabikamani/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/ayman_____jni/</t>
+          <t>https://www.instagram.com/n4sh_101/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/anwar.lab/</t>
+          <t>https://www.instagram.com/theismail.ig/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/kadm_futbol00/</t>
+          <t>https://www.instagram.com/yilmaz_priww56/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/f_hgeyim/</t>
+          <t>https://www.instagram.com/ayob_maryol5/</t>
         </is>
       </c>
     </row>
